--- a/xlsx/波多黎各_intext.xlsx
+++ b/xlsx/波多黎各_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
   <si>
     <t>波多黎各</t>
   </si>
@@ -29,13 +29,13 @@
     <t>波多黎各国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_波多黎各</t>
+    <t>政策_政策_美国_波多黎各</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>波多黎各國徽</t>
+    <t>波多黎各国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%B1%85%E6%B0%91%E4%BB%A3%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E6%80%BB%E7%9D%A3</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.pr</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大安地列斯群島</t>
+    <t>大安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小安地列斯群島</t>
+    <t>小安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%8E%86%E5%8F%B2</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%B4%97%E8%80%85%E8%81%96%E7%B4%84%E7%BF%B0</t>
   </si>
   <si>
-    <t>施洗者聖約翰</t>
+    <t>施洗者圣约翰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%B4%97%E8%80%85%E7%B4%84%E7%BF%B0</t>
   </si>
   <si>
-    <t>施洗者約翰</t>
+    <t>施洗者约翰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1898%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1898年巴黎條約</t>
+    <t>1898年巴黎条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發達國家</t>
+    <t>发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E8%90%8A%E5%B8%83%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫萊布拉島</t>
+    <t>库莱布拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E5%90%88%E4%BD%B5%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>未合併領土</t>
+    <t>未合并领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -515,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美国第51州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>自由聯合</t>
+    <t>自由联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%BF%9B%E6%AD%A5%E5%85%9A_(%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84)</t>
@@ -563,13 +560,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E7%8D%A8%E7%AB%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>波多黎各獨立黨</t>
+    <t>波多黎各独立党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jennifer_Gonz%C3%A1lez</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%BA%E6%97%8F</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%82%B5%E5%8B%99%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>波多黎各債務危機</t>
+    <t>波多黎各债务危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
@@ -611,15 +608,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%85%83</t>
   </si>
   <si>
-    <t>國際元</t>
+    <t>国际元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
   </si>
   <si>
-    <t>购买力平价</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E7%A9%86%E5%B0%BC%E5%A5%A5%E6%96%AF%C2%B7%E9%A9%AC%E6%9E%97%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%99%82%E9%9B%BB%E5%AD%90%E5%A0%B1</t>
   </si>
   <si>
-    <t>中時電子報</t>
+    <t>中时电子报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1037,19 +1028,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1085,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1097,25 +1088,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1163,9 +1154,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
   </si>
   <si>
@@ -1259,9 +1247,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
   </si>
   <si>
@@ -1283,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1301,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -1319,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1337,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1355,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1367,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1379,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1397,25 +1382,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1427,19 +1412,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1457,31 +1442,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1529,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1571,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子島</t>
+    <t>爱德华王子岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
@@ -1601,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>史泰登島</t>
+    <t>史泰登岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E7%BE%A4%E5%B2%9B</t>
@@ -1613,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%A4%81%E5%B3%B6%E7%BE%A4</t>
   </si>
   <si>
-    <t>佛羅里達礁島群</t>
+    <t>佛罗里达礁岛群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E7%BB%B4%E7%BA%B3%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -1625,13 +1610,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%9C%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>火地島</t>
+    <t>火地岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞群島</t>
+    <t>南乔治亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E5%B2%9B</t>
@@ -1667,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%86%B1%E6%88%88%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>比熱戈斯群島</t>
+    <t>比热戈斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1715,9 +1700,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -1727,13 +1709,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>美属维尔京群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BE%85%E6%99%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓜德羅普島</t>
+    <t>瓜德罗普岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8F%90%E5%B0%BC%E5%85%8B%E5%B2%9B</t>
@@ -4725,7 +4704,7 @@
         <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4751,10 +4730,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -4780,10 +4759,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4809,10 +4788,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4838,10 +4817,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4867,10 +4846,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4896,10 +4875,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4925,10 +4904,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -4954,10 +4933,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4983,10 +4962,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5012,10 +4991,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5070,10 +5049,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5099,10 +5078,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5128,10 +5107,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5157,10 +5136,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5186,10 +5165,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5215,10 +5194,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5244,10 +5223,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5273,10 +5252,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5302,10 +5281,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5331,10 +5310,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5360,10 +5339,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5389,10 +5368,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5418,10 +5397,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5447,10 +5426,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5476,10 +5455,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5505,10 +5484,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5534,10 +5513,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5563,10 +5542,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5592,10 +5571,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5621,10 +5600,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5650,10 +5629,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5679,10 +5658,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5708,10 +5687,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>7</v>
@@ -5737,10 +5716,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5766,10 +5745,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>34</v>
@@ -5795,10 +5774,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5824,10 +5803,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5853,10 +5832,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5882,10 +5861,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5911,10 +5890,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5940,10 +5919,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5969,10 +5948,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5998,10 +5977,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6027,10 +6006,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -6056,10 +6035,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6085,10 +6064,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6114,10 +6093,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6143,10 +6122,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6172,10 +6151,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6201,10 +6180,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6230,10 +6209,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6259,10 +6238,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6288,10 +6267,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6317,10 +6296,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6346,10 +6325,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6375,10 +6354,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6404,10 +6383,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6433,10 +6412,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6462,10 +6441,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6491,10 +6470,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6520,10 +6499,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6549,10 +6528,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6578,10 +6557,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6607,10 +6586,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6636,10 +6615,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6665,10 +6644,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6694,10 +6673,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6723,10 +6702,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6752,10 +6731,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6781,10 +6760,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6810,10 +6789,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6839,10 +6818,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6868,10 +6847,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6897,10 +6876,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6926,10 +6905,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6955,10 +6934,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6984,10 +6963,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7013,10 +6992,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7042,10 +7021,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7071,10 +7050,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7100,10 +7079,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7129,10 +7108,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7158,10 +7137,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7187,10 +7166,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7245,10 +7224,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7274,10 +7253,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7303,10 +7282,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7332,10 +7311,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7361,10 +7340,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7390,10 +7369,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7419,10 +7398,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7448,10 +7427,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7477,10 +7456,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7506,10 +7485,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7535,10 +7514,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7564,10 +7543,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7593,10 +7572,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7622,10 +7601,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7651,10 +7630,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7680,10 +7659,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7709,10 +7688,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7738,10 +7717,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7767,10 +7746,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7796,10 +7775,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7825,10 +7804,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -7854,10 +7833,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7883,10 +7862,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7912,10 +7891,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="G196" t="n">
         <v>18</v>
@@ -7941,10 +7920,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7970,10 +7949,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7999,10 +7978,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8028,10 +8007,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8057,10 +8036,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8086,10 +8065,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8115,10 +8094,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8144,10 +8123,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8173,10 +8152,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8202,10 +8181,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8231,10 +8210,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8260,10 +8239,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8289,10 +8268,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8318,10 +8297,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8347,10 +8326,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8376,10 +8355,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>88</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8405,10 +8384,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8434,10 +8413,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8463,10 +8442,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8492,10 +8471,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8521,10 +8500,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8550,10 +8529,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8579,10 +8558,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8608,10 +8587,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8637,10 +8616,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8666,10 +8645,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8695,10 +8674,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8724,10 +8703,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8753,10 +8732,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8782,10 +8761,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8811,10 +8790,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8840,10 +8819,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8869,10 +8848,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8898,10 +8877,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8927,10 +8906,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8956,10 +8935,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8985,10 +8964,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9014,10 +8993,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9043,10 +9022,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9072,10 +9051,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9101,10 +9080,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9130,10 +9109,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9159,10 +9138,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9188,10 +9167,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9217,10 +9196,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9246,10 +9225,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9275,10 +9254,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9304,10 +9283,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9333,10 +9312,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9362,10 +9341,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9391,10 +9370,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9420,10 +9399,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9449,10 +9428,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9478,10 +9457,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9507,10 +9486,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9536,10 +9515,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9565,10 +9544,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F253" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9594,10 +9573,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9623,10 +9602,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9652,10 +9631,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9681,10 +9660,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9710,10 +9689,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9739,10 +9718,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9768,10 +9747,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9797,10 +9776,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9826,10 +9805,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>5</v>
@@ -9855,10 +9834,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9884,10 +9863,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9913,10 +9892,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9942,10 +9921,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9971,10 +9950,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10000,10 +9979,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10029,10 +10008,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10058,10 +10037,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10087,10 +10066,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10116,10 +10095,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10145,10 +10124,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10174,10 +10153,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10203,10 +10182,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10232,10 +10211,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10261,10 +10240,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10290,10 +10269,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10319,10 +10298,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10348,10 +10327,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10377,10 +10356,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10406,10 +10385,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10435,10 +10414,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10464,10 +10443,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10493,10 +10472,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10522,10 +10501,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F286" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10551,10 +10530,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10580,10 +10559,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10609,10 +10588,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10638,10 +10617,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F290" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10667,10 +10646,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10696,10 +10675,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10725,10 +10704,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>345</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10754,10 +10733,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10783,10 +10762,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10812,10 +10791,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F296" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10841,10 +10820,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F297" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10870,10 +10849,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10899,10 +10878,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10928,10 +10907,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10957,10 +10936,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10986,10 +10965,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11015,10 +10994,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11044,10 +11023,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11073,10 +11052,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11102,10 +11081,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11131,10 +11110,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11160,10 +11139,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11189,10 +11168,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11218,10 +11197,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11247,10 +11226,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11276,10 +11255,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11305,10 +11284,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11334,10 +11313,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11363,10 +11342,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11392,10 +11371,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11421,10 +11400,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11450,10 +11429,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11479,10 +11458,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11508,10 +11487,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F320" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11537,10 +11516,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11566,10 +11545,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>

--- a/xlsx/波多黎各_intext.xlsx
+++ b/xlsx/波多黎各_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623">
   <si>
     <t>波多黎各</t>
   </si>
@@ -29,7 +29,7 @@
     <t>波多黎各国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_波多黎各</t>
+    <t>体育运动_体育运动_1980年夏季奥林匹克运动会_波多黎各</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%9C%8B%E5%BE%BD</t>
@@ -432,12 +432,6 @@
   </si>
   <si>
     <t>工业化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>發達國家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E8%90%8A%E5%B8%83%E6%8B%89%E5%B3%B6</t>
@@ -2238,7 +2232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3220,7 +3214,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -4467,7 +4461,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4583,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4612,7 +4606,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -4641,7 +4635,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4728,7 +4722,7 @@
         <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4757,7 +4751,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4902,7 +4896,7 @@
         <v>178</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4931,7 +4925,7 @@
         <v>180</v>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5012,13 +5006,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5041,13 +5035,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5076,7 +5070,7 @@
         <v>188</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5105,7 +5099,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5134,7 +5128,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5163,7 +5157,7 @@
         <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5192,7 +5186,7 @@
         <v>196</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -5366,7 +5360,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5395,7 +5389,7 @@
         <v>210</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5424,7 +5418,7 @@
         <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5453,7 +5447,7 @@
         <v>214</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5598,7 +5592,7 @@
         <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5627,7 +5621,7 @@
         <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5685,7 +5679,7 @@
         <v>230</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5714,7 +5708,7 @@
         <v>232</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5743,7 +5737,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5772,7 +5766,7 @@
         <v>236</v>
       </c>
       <c r="G122" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6004,7 +5998,7 @@
         <v>252</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6033,7 +6027,7 @@
         <v>254</v>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6439,7 +6433,7 @@
         <v>282</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6468,7 +6462,7 @@
         <v>284</v>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6642,7 +6636,7 @@
         <v>296</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6671,7 +6665,7 @@
         <v>298</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6700,7 +6694,7 @@
         <v>300</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7077,7 +7071,7 @@
         <v>326</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7135,7 +7129,7 @@
         <v>330</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7187,13 +7181,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7216,13 +7210,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>162</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7802,7 +7796,7 @@
         <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7831,7 +7825,7 @@
         <v>376</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7860,7 +7854,7 @@
         <v>378</v>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7889,7 +7883,7 @@
         <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7918,7 +7912,7 @@
         <v>382</v>
       </c>
       <c r="G196" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7947,7 +7941,7 @@
         <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7976,7 +7970,7 @@
         <v>386</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8005,7 +7999,7 @@
         <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8237,7 +8231,7 @@
         <v>404</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8324,7 +8318,7 @@
         <v>410</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8382,7 +8376,7 @@
         <v>414</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8411,7 +8405,7 @@
         <v>416</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8440,7 +8434,7 @@
         <v>418</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8469,7 +8463,7 @@
         <v>420</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8962,7 +8956,7 @@
         <v>454</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8991,7 +8985,7 @@
         <v>456</v>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9281,7 +9275,7 @@
         <v>476</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9339,7 +9333,7 @@
         <v>480</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9536,10 +9530,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9565,10 +9559,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>347</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9774,7 +9768,7 @@
         <v>508</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9803,7 +9797,7 @@
         <v>510</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9832,7 +9826,7 @@
         <v>512</v>
       </c>
       <c r="G262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10493,10 +10487,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>403</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>404</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10522,10 +10516,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>406</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10609,10 +10603,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>418</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10638,10 +10632,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>419</v>
+        <v>563</v>
       </c>
       <c r="F290" t="s">
-        <v>420</v>
+        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10783,10 +10777,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>405</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>406</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10812,10 +10806,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F296" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10841,10 +10835,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>415</v>
+        <v>573</v>
       </c>
       <c r="F297" t="s">
-        <v>416</v>
+        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11549,35 +11543,6 @@
         <v>4</v>
       </c>
       <c r="I321" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>321</v>
-      </c>
-      <c r="E322" t="s">
-        <v>623</v>
-      </c>
-      <c r="F322" t="s">
-        <v>624</v>
-      </c>
-      <c r="G322" t="n">
-        <v>1</v>
-      </c>
-      <c r="H322" t="s">
-        <v>4</v>
-      </c>
-      <c r="I322" t="n">
         <v>3</v>
       </c>
     </row>
